--- a/biology/Botanique/Capparis_hastata/Capparis_hastata.xlsx
+++ b/biology/Botanique/Capparis_hastata/Capparis_hastata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Capparis hastata est un arbuste de la famille des Capparaceae, originaire des Antilles et d'Amérique du Sud tropicale.
 Il est connu aux Antilles françaises sous le nom de mabouya ferrugineux.
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce Capparis[1] est un arbuste de 3-5 m de haut ou parfois un arbre pouvant atteindre 10 m, à tronc droit, presque entièrement glabre et à écorce lisse, grise.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce Capparis est un arbuste de 3-5 m de haut ou parfois un arbre pouvant atteindre 10 m, à tronc droit, presque entièrement glabre et à écorce lisse, grise.
 Ses feuilles elliptiques à ovales sont coriaces, de 5-9 × 3-6 cm, à base arrondie souvent cordées et à apex aigu à acuminé. Elles sont alternes mais disposées dans un même plan (on dit distiques).
 Les fleurs disposées en corymbes sont odorantes. Elles possèdent 4 sépales cupuliformes et 4 pétales blancs, coriaces, de 13-15 mm et de nombreuses étamines 3 fois plus longues que les pétales.
 Le fruit oblong et comprimé mesure 10-20 cm de long et 2-3 cm de large ; il contient une pulpe rouge et des graines ovales.
@@ -547,11 +561,13 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Capparis hastata se rencontre dans les Petites Antilles, au Venezuela et au nord de la Colombie.
 Aux Antilles, il pousse dans la forêt sèche semi-décidue (série xérophile).
-Ses feuilles contiennent du méthylglucosinolate[2]. Les glucosinolates sont ces marqueurs des moutardes qui leur donnent leur goût piquant.
+Ses feuilles contiennent du méthylglucosinolate. Les glucosinolates sont ces marqueurs des moutardes qui leur donnent leur goût piquant.
 </t>
         </is>
       </c>
